--- a/trend_results/Rivers/MangatainokaatusTiraumeaConfluence_25b580ea8d.xlsx
+++ b/trend_results/Rivers/MangatainokaatusTiraumeaConfluence_25b580ea8d.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.919910764968601</v>
+        <v>0.080089235031399</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9589779208938251</v>
+        <v>0.0410220791061749</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.478472216352602</v>
+        <v>0.521527783647398</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.966735287135267</v>
+        <v>0.033264712864733</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">

--- a/trend_results/Rivers/MangatainokaatusTiraumeaConfluence_25b580ea8d.xlsx
+++ b/trend_results/Rivers/MangatainokaatusTiraumeaConfluence_25b580ea8d.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.0891153672721665</v>
+        <v>0.699790397758541</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.789473684210526</v>
+        <v>0.702702702702703</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>35.5</v>
+        <v>44</v>
       </c>
       <c r="K2" t="n">
-        <v>4.73843864468864</v>
+        <v>-1.09487567482083</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.902983558886331</v>
+        <v>-8.84689969747124</v>
       </c>
       <c r="M2" t="n">
-        <v>11.00781425917</v>
+        <v>5.02578960547907</v>
       </c>
       <c r="N2" t="n">
-        <v>13.3477144920807</v>
+        <v>-2.48835380641097</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.047216835687611</v>
+        <v>0.012825227802386</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.921052631578947</v>
+        <v>0.9696969696969699</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.295</v>
+        <v>0.85</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.294613702623907</v>
+        <v>-0.303017713481209</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.590470219610163</v>
+        <v>-0.59130929879494</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0016270077176817</v>
+        <v>-0.0840803886685117</v>
       </c>
       <c r="N3" t="n">
-        <v>-22.7500928667109</v>
+        <v>-35.6491427624952</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.080089235031399</v>
+        <v>0.024475737583682</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>10.8</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.109976373626374</v>
+        <v>-0.142397829150196</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.264398177398747</v>
+        <v>-0.288267108663757</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0216852030120062</v>
+        <v>-0.0290958654411296</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.01829975579976</v>
+        <v>-1.31849841805737</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,17 +842,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0287775671547026</v>
+        <v>0.0680136314384194</v>
       </c>
       <c r="G5" t="n">
-        <v>0.298245614035088</v>
+        <v>0.350877192982456</v>
       </c>
       <c r="H5" t="n">
-        <v>0.228070175438596</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -861,16 +861,16 @@
         <v>0.006</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0005271773003116</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0012810706083801</v>
+        <v>0.0011041803359921</v>
       </c>
       <c r="N5" t="n">
-        <v>8.78628833852714</v>
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.132308513077586</v>
+        <v>0.505494209347531</v>
       </c>
       <c r="G6" t="n">
         <v>0.0526315789473684</v>
       </c>
       <c r="H6" t="n">
-        <v>0.807017543859649</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>17.2907236941953</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-11.4687600353674</v>
+        <v>-28.6959057969237</v>
       </c>
       <c r="M6" t="n">
-        <v>62.7170092060598</v>
+        <v>39.6812393801879</v>
       </c>
       <c r="N6" t="n">
-        <v>10.171013937762</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.0534266630091423</v>
+        <v>0.333268695750785</v>
       </c>
       <c r="G7" t="n">
-        <v>0.76</v>
+        <v>0.69811320754717</v>
       </c>
       <c r="H7" t="n">
-        <v>0.32</v>
+        <v>0.358490566037736</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>0.005</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,14 +1115,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.198265023101576</v>
+        <v>0.999794728284106</v>
       </c>
       <c r="G8" t="n">
-        <v>0.087719298245614</v>
+        <v>0.140350877192982</v>
       </c>
       <c r="H8" t="n">
         <v>0.12280701754386</v>
@@ -1134,16 +1134,16 @@
         <v>0.004</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.0005813813514232</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.0008580498457727</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0003737529214452</v>
+        <v>-0.000250406299682</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-14.5345337855813</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.07708485507189131</v>
+        <v>0.5</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.729</v>
+        <v>0.743</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0471335279304029</v>
+        <v>-0.0038957333823572</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.009142050599351</v>
+        <v>-0.0619995130568467</v>
       </c>
       <c r="M9" t="n">
-        <v>0.110669496230954</v>
+        <v>0.0734650602480913</v>
       </c>
       <c r="N9" t="n">
-        <v>6.46550451720205</v>
+        <v>-0.52432481592964</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0410220791061749</v>
+        <v>0.031493161206574</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.892857142857143</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.67</v>
+        <v>7.625</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0765460391473662</v>
+        <v>-0.08780034841877921</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.149081632653061</v>
+        <v>-0.159378675289034</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0028095390646326</v>
+        <v>-0.0131869119154482</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.99799268771012</v>
+        <v>-1.15147997926268</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.059051960282386</v>
+        <v>0.5</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.929824561403509</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.74</v>
+        <v>0.748</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0517107312819603</v>
+        <v>-0.0023954175345731</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0046951416553788</v>
+        <v>-0.0584500827858844</v>
       </c>
       <c r="M11" t="n">
-        <v>0.111510074265943</v>
+        <v>0.0738737428051856</v>
       </c>
       <c r="N11" t="n">
-        <v>6.98793665972437</v>
+        <v>-0.320242985905505</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.16132842415243</v>
+        <v>0.248758888064994</v>
       </c>
       <c r="G12" t="n">
-        <v>0.421052631578947</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.368421052631579</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>0.98</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0162952496532594</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0.0331491957104826</v>
       </c>
       <c r="M12" t="n">
-        <v>0.492345666142272</v>
+        <v>0.0801395072427315</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.6627805768632</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.101364688883911</v>
+        <v>0.211892134198905</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8245614035087721</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.96</v>
+        <v>0.015</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0432789153346708</v>
+        <v>0.0007102083333333</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0116696666564794</v>
+        <v>-0.0007216881987169</v>
       </c>
       <c r="M13" t="n">
-        <v>0.100830886823241</v>
+        <v>0.0025796684606452</v>
       </c>
       <c r="N13" t="n">
-        <v>4.50822034736154</v>
+        <v>4.73472222222222</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.254087862765018</v>
+        <v>0.439914580005915</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.578947368421053</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.016</v>
+        <v>1.22</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0006895980271475</v>
+        <v>0.0116641221040106</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0010870535714285</v>
+        <v>-0.0980194032593952</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002877206097846</v>
+        <v>0.54985016965379</v>
       </c>
       <c r="N14" t="n">
-        <v>4.30998766967197</v>
+        <v>0.956075582295955</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.677704989110535</v>
+        <v>0.0077350833307623</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.912280701754386</v>
+        <v>0.744186046511628</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.36</v>
+        <v>26.75</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0453822028811525</v>
+        <v>2.26717513309672</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.200538779677973</v>
+        <v>0.664162232870119</v>
       </c>
       <c r="M15" t="n">
-        <v>0.246278125569495</v>
+        <v>4.4846622470394</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.33692668243768</v>
+        <v>8.47542105830548</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0145490005518695</v>
+        <v>0.000312437613712</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7666666666666671</v>
+        <v>0.820224719101124</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23</v>
+        <v>2.24</v>
       </c>
       <c r="K16" t="n">
-        <v>1.89052795031056</v>
+        <v>-0.235619111291321</v>
       </c>
       <c r="L16" t="n">
-        <v>0.400421205696498</v>
+        <v>-0.339169796664241</v>
       </c>
       <c r="M16" t="n">
-        <v>3.87722955805685</v>
+        <v>-0.125948275862069</v>
       </c>
       <c r="N16" t="n">
-        <v>8.219686740480689</v>
+        <v>-10.5187103255054</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0023550159692129</v>
+        <v>0.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0106382978723404</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.808510638297872</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.285</v>
+        <v>10.775</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.196090437788018</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.298992020660102</v>
+        <v>-0.0538937333271871</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.07685687242518149</v>
+        <v>0.0401267246986362</v>
       </c>
       <c r="N17" t="n">
-        <v>-8.581638415230559</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.959051680075133</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.247863247863248</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.136752136752137</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.521527783647398</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.879310344827586</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.775</v>
+        <v>0.007</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0033447802197801</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0702181858630931</v>
+        <v>-0.0003711523302556</v>
       </c>
       <c r="M18" t="n">
-        <v>0.055155211583964</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.031042043803064</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.631611038988164</v>
+        <v>0.0032984056905222</v>
       </c>
       <c r="G19" t="n">
-        <v>0.230769230769231</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H19" t="n">
-        <v>0.136752136752137</v>
+        <v>0.700854700854701</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>0.007</v>
+        <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>12.4119765069671</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0001240214825814</v>
+        <v>4.08993375194403</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>25.7569902153397</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>8.865697504976479</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0004244142495031</v>
+        <v>0.0422326040449227</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0256410256410256</v>
+        <v>0.807339449541284</v>
       </c>
       <c r="H20" t="n">
-        <v>0.683760683760684</v>
+        <v>0.247706422018349</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>14.4940476190476</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>6.40212519130544</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>25.7927760932174</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>10.3528911564626</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.326384358114465</v>
+        <v>0.9994970862333979</v>
       </c>
       <c r="G21" t="n">
-        <v>0.807339449541284</v>
+        <v>0.102564102564103</v>
       </c>
       <c r="H21" t="n">
-        <v>0.247706422018349</v>
+        <v>0.136752136752137</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0002030294608115</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0003162337662337</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-5.07573652028905</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.969950471986727</v>
+        <v>0.99131132922066</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H22" t="n">
-        <v>0.136752136752137</v>
+        <v>0.957264957264957</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.004</v>
+        <v>0.8088</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0001125784023216</v>
+        <v>-0.0255875686813187</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0002564901407872</v>
+        <v>-0.0440197488221841</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-0.0100256081023162</v>
       </c>
       <c r="N22" t="n">
-        <v>-2.81446005804033</v>
+        <v>-3.16364597939153</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.635869461663694</v>
+        <v>0.338775836012608</v>
       </c>
       <c r="G23" t="n">
-        <v>0.008547008547008499</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.965811965811966</v>
+        <v>0.71304347826087</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7958</v>
+        <v>7.61</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0019991789819376</v>
+        <v>-0.0055706659888155</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0227151475352484</v>
+        <v>-0.0280032921755888</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0157274913200137</v>
+        <v>0.0173032022629086</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.251216258097211</v>
+        <v>-0.07320191838128121</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.033264712864733</v>
+        <v>0.990639977782018</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.71304347826087</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.7</v>
+        <v>0.8165</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0274624060150376</v>
+        <v>-0.0250858516483517</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0506194809214569</v>
+        <v>-0.0443582674803259</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0023951699976306</v>
+        <v>-0.0096077591120336</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.356654623571917</v>
+        <v>-3.07236394958379</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.584622235079539</v>
+        <v>0.994469999076642</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.923076923076923</v>
+        <v>0.735042735042735</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.803</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0036675034230944</v>
+        <v>-0.0198397609994568</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0234410614814694</v>
+        <v>-0.0364858270481678</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0151621311715484</v>
+        <v>-0.0079347313004093</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.456725208355475</v>
+        <v>-1.98397609994568</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2745,35 +2745,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.133638687965525</v>
+        <v>0.223008011414398</v>
       </c>
       <c r="G26" t="n">
-        <v>0.307692307692308</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.247863247863248</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.015</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.000191843355347</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-0.0001969002695417</v>
       </c>
       <c r="M26" t="n">
-        <v>0.143219477622151</v>
+        <v>0.0007428979765493</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.27895570231337</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.730914415405891</v>
+        <v>0.161191268513717</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.752136752136752</v>
+        <v>0.863247863247863</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.99</v>
+        <v>1.09</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0048339820942</v>
+        <v>0.0198775510204082</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0191254760789592</v>
+        <v>-0.0146981470586702</v>
       </c>
       <c r="M27" t="n">
-        <v>0.009194587190792599</v>
+        <v>0.101160920778645</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.488281019616168</v>
+        <v>1.8236285339824</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.197825210092868</v>
+        <v>0.5</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.358974358974359</v>
+        <v>0.8</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.015</v>
+        <v>0.356</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0002192531779661</v>
+        <v>0.002482281553398</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0001812166099544</v>
+        <v>-0.0557024990657605</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0007809724296124</v>
+        <v>0.0348639098385896</v>
       </c>
       <c r="N28" t="n">
-        <v>1.46168785310735</v>
+        <v>0.697270099269118</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2993,11 +2993,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3007,46 +3003,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.95679463351315</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.0706471930208382</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.88034188034188</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.22</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0318647764449291</v>
+        <v>4.14957599885961</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0033254078850607</v>
+        <v>-3.47745459234525</v>
       </c>
       <c r="M29" t="n">
-        <v>0.112387870367039</v>
+        <v>9.3087048555329</v>
       </c>
       <c r="N29" t="n">
-        <v>2.6118669217155</v>
+        <v>4.35468149738652</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3051,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3084,11 +3080,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3098,7 +3090,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,7 +3105,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.889664319040077</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3125,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.356</v>
+        <v>5.259</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0318918076109937</v>
+        <v>0.0794261714675438</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0628168432848249</v>
+        <v>-0.32326145885963</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0779212001935651</v>
+        <v>0.476914631274802</v>
       </c>
       <c r="N30" t="n">
-        <v>8.95837292443642</v>
+        <v>1.51029038728929</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3185,11 +3177,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3200,31 +3192,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.889664319040077</v>
+        <v>0.20948086257967</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>89.09</v>
+        <v>0.363</v>
       </c>
       <c r="K31" t="n">
-        <v>5.34250317537659</v>
+        <v>-0.0105360576923077</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.4550837765928</v>
+        <v>-0.0275577304163236</v>
       </c>
       <c r="M31" t="n">
-        <v>9.3087048555329</v>
+        <v>0.0050540082583426</v>
       </c>
       <c r="N31" t="n">
-        <v>5.9967484289781</v>
+        <v>-2.90249523204069</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3272,11 +3264,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3287,7 +3279,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.889664319040077</v>
+        <v>0.5</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3299,19 +3291,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.78</v>
+        <v>94.145</v>
       </c>
       <c r="K32" t="n">
-        <v>0.285701560808983</v>
+        <v>0.35052783109405</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.32326145885963</v>
+        <v>-1.62532976861687</v>
       </c>
       <c r="M32" t="n">
-        <v>0.559693949461214</v>
+        <v>2.10729872062066</v>
       </c>
       <c r="N32" t="n">
-        <v>5.97702010060633</v>
+        <v>0.372327612824951</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3312,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3351,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3374,7 +3366,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.237137175383665</v>
+        <v>0.894751149972331</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3386,19 +3378,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.372</v>
+        <v>4.7175</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.009998463687150801</v>
+        <v>0.115245354239257</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0277825810770644</v>
+        <v>-0.0368958057090732</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0051633125666326</v>
+        <v>0.220357459029614</v>
       </c>
       <c r="N33" t="n">
-        <v>-2.68775905568571</v>
+        <v>2.44293278726564</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3399,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3437,180 +3429,6 @@
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Mangatainoka at u/s Tiraumea Confluence</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>10</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0.237137175383665</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>94.145</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-1.22062179487179</v>
-      </c>
-      <c r="L34" t="n">
-        <v>-2.92334798003515</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.27506194344075</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-1.29653385190057</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>1844630.998</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5523563.134</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Mangatainoka at u/s Tiraumea Confluence</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>10</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0.704247481502542</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>4.7175</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.041557972440945</v>
-      </c>
-      <c r="L35" t="n">
-        <v>-0.162503604614215</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.198331654975319</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.88093211321558</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>1844630.998</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5523563.134</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangatainokaatusTiraumeaConfluence_25b580ea8d.xlsx
+++ b/trend_results/Rivers/MangatainokaatusTiraumeaConfluence_25b580ea8d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="69">
   <si>
     <t>site name</t>
   </si>
@@ -139,46 +139,58 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
     <t>Likely improving</t>
   </si>
   <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -566,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,31 +672,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.699790397758541</v>
+        <v>0.757316022896862</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.702702702702703</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>44</v>
+        <v>41.5</v>
       </c>
       <c r="K2">
-        <v>-1.09487567482083</v>
+        <v>-1.62876254180602</v>
       </c>
       <c r="L2">
-        <v>-8.84689969747124</v>
+        <v>-9.9387682638451</v>
       </c>
       <c r="M2">
-        <v>5.02578960547907</v>
+        <v>2.35387411528746</v>
       </c>
       <c r="N2">
-        <v>-2.48835380641097</v>
+        <v>-3.92472901640005</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -699,19 +711,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -731,37 +743,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.012825227802386</v>
+        <v>0.813103400298154</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.9696969696969699</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.85</v>
+        <v>0.5675</v>
       </c>
       <c r="K3">
-        <v>-0.303017713481209</v>
+        <v>0.142363708454375</v>
       </c>
       <c r="L3">
-        <v>-0.59130929879494</v>
+        <v>-0.0849981674082619</v>
       </c>
       <c r="M3">
-        <v>-0.0840803886685117</v>
+        <v>0.431087186521219</v>
       </c>
       <c r="N3">
-        <v>-35.6491427624952</v>
+        <v>25.0861160272026</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q3">
         <v>1844630.998</v>
@@ -770,19 +782,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -802,13 +814,13 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.024475737583682</v>
+        <v>0.095443050672866</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.912280701754386</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -817,22 +829,22 @@
         <v>10.8</v>
       </c>
       <c r="K4">
-        <v>-0.142397829150196</v>
+        <v>-0.120174985483998</v>
       </c>
       <c r="L4">
-        <v>-0.288267108663757</v>
+        <v>-0.258178022313311</v>
       </c>
       <c r="M4">
-        <v>-0.0290958654411296</v>
+        <v>0.0344868250554863</v>
       </c>
       <c r="N4">
-        <v>-1.31849841805737</v>
+        <v>-1.11273134707406</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q4">
         <v>1844630.998</v>
@@ -841,19 +853,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -873,28 +885,28 @@
         <v>41</v>
       </c>
       <c r="F5">
-        <v>0.0680136314384194</v>
+        <v>0.414239189684869</v>
       </c>
       <c r="G5">
-        <v>0.350877192982456</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.210526315789474</v>
+        <v>0.275862068965517</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0.0003546467209972</v>
       </c>
       <c r="M5">
-        <v>0.0011041803359921</v>
+        <v>0.0004991291517987</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -903,7 +915,7 @@
         <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1844630.998</v>
@@ -912,19 +924,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -941,40 +953,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.505494209347531</v>
+        <v>0.972631498715399</v>
       </c>
       <c r="G6">
         <v>0.0526315789473684</v>
       </c>
       <c r="H6">
-        <v>0.8245614035087721</v>
+        <v>0.87719298245614</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-23.1602170203815</v>
       </c>
       <c r="L6">
-        <v>-28.6959057969237</v>
+        <v>-69.2502679254588</v>
       </c>
       <c r="M6">
-        <v>39.6812393801879</v>
+        <v>-3.25999161935888</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-15.4401446802543</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1844630.998</v>
@@ -983,19 +995,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1012,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>0.333268695750785</v>
+        <v>0.9299099062188469</v>
       </c>
       <c r="G7">
-        <v>0.69811320754717</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="H7">
-        <v>0.358490566037736</v>
+        <v>0.303571428571429</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0.005</v>
@@ -1054,19 +1066,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,34 +1095,34 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>0.999794728284106</v>
+        <v>0.999999842427444</v>
       </c>
       <c r="G8">
-        <v>0.140350877192982</v>
+        <v>0.258620689655172</v>
       </c>
       <c r="H8">
-        <v>0.12280701754386</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K8">
-        <v>-0.0005813813514232</v>
+        <v>-0.0007635888501742</v>
       </c>
       <c r="L8">
-        <v>-0.0008580498457727</v>
+        <v>-0.0010251372343804</v>
       </c>
       <c r="M8">
-        <v>-0.000250406299682</v>
+        <v>-0.0005017170329669999</v>
       </c>
       <c r="N8">
-        <v>-14.5345337855813</v>
+        <v>-25.4529616724739</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
@@ -1125,19 +1137,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1157,37 +1169,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.643788875060667</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.982456140350877</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.743</v>
+        <v>0.7205</v>
       </c>
       <c r="K9">
-        <v>-0.0038957333823572</v>
+        <v>-0.0110035667457542</v>
       </c>
       <c r="L9">
-        <v>-0.0619995130568467</v>
+        <v>-0.06410228357449881</v>
       </c>
       <c r="M9">
-        <v>0.0734650602480913</v>
+        <v>0.0587468403556251</v>
       </c>
       <c r="N9">
-        <v>-0.52432481592964</v>
+        <v>-1.52721259483057</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q9">
         <v>1844630.998</v>
@@ -1196,19 +1208,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1228,37 +1240,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.031493161206574</v>
+        <v>0.049388848416176</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.857142857142857</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.625</v>
+        <v>7.54</v>
       </c>
       <c r="K10">
-        <v>-0.08780034841877921</v>
+        <v>-0.0661966950959491</v>
       </c>
       <c r="L10">
-        <v>-0.159378675289034</v>
+        <v>-0.129384548177227</v>
       </c>
       <c r="M10">
-        <v>-0.0131869119154482</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>-1.15147997926268</v>
+        <v>-0.877940253261925</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q10">
         <v>1844630.998</v>
@@ -1267,16 +1279,16 @@
         <v>5523563.134</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1296,37 +1308,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.643788875060667</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.9649122807017541</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.748</v>
+        <v>0.7325</v>
       </c>
       <c r="K11">
-        <v>-0.0023954175345731</v>
+        <v>-0.0128183900803144</v>
       </c>
       <c r="L11">
-        <v>-0.0584500827858844</v>
+        <v>-0.0644804979379858</v>
       </c>
       <c r="M11">
-        <v>0.0738737428051856</v>
+        <v>0.0482826942328426</v>
       </c>
       <c r="N11">
-        <v>-0.320242985905505</v>
+        <v>-1.74995086420675</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1844630.998</v>
@@ -1335,19 +1347,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1361,43 +1373,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.248758888064994</v>
+        <v>0.942586315420751</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.807017543859649</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.98</v>
+        <v>0.895</v>
       </c>
       <c r="K12">
-        <v>0.0162952496532594</v>
+        <v>-0.045154532967033</v>
       </c>
       <c r="L12">
-        <v>-0.0331491957104826</v>
+        <v>-0.08556538250858001</v>
       </c>
       <c r="M12">
-        <v>0.0801395072427315</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.6627805768632</v>
+        <v>-5.04519921419363</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1844630.998</v>
@@ -1406,19 +1418,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1438,37 +1450,37 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.211892134198905</v>
+        <v>0.900285544797752</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.543859649122807</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.015</v>
+        <v>0.0145</v>
       </c>
       <c r="K13">
-        <v>0.0007102083333333</v>
+        <v>-0.0011294063079777</v>
       </c>
       <c r="L13">
-        <v>-0.0007216881987169</v>
+        <v>-0.0034836446138822</v>
       </c>
       <c r="M13">
-        <v>0.0025796684606452</v>
+        <v>0.0002447814547679</v>
       </c>
       <c r="N13">
-        <v>4.73472222222222</v>
+        <v>-7.78900902053611</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q13">
         <v>1844630.998</v>
@@ -1477,19 +1489,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1509,37 +1521,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.439914580005915</v>
+        <v>0.697089154723832</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.8947368421052631</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="K14">
-        <v>0.0116641221040106</v>
+        <v>-0.0788289170506912</v>
       </c>
       <c r="L14">
-        <v>-0.0980194032593952</v>
+        <v>-0.29993134118217</v>
       </c>
       <c r="M14">
-        <v>0.54985016965379</v>
+        <v>0.0596534035463847</v>
       </c>
       <c r="N14">
-        <v>0.956075582295955</v>
+        <v>-7.80484327234567</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q14">
         <v>1844630.998</v>
@@ -1548,19 +1560,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1580,31 +1592,31 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.0077350833307623</v>
+        <v>0.009600405660439799</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.744186046511628</v>
+        <v>0.740740740740741</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>26.75</v>
+        <v>30.5</v>
       </c>
       <c r="K15">
-        <v>2.26717513309672</v>
+        <v>1.93424687307196</v>
       </c>
       <c r="L15">
-        <v>0.664162232870119</v>
+        <v>0.582880399421288</v>
       </c>
       <c r="M15">
-        <v>4.4846622470394</v>
+        <v>4.34482673661318</v>
       </c>
       <c r="N15">
-        <v>8.47542105830548</v>
+        <v>6.34179302646545</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
@@ -1619,19 +1631,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1651,31 +1663,31 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.000312437613712</v>
+        <v>0.0001707491317719</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.820224719101124</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="K16">
-        <v>-0.235619111291321</v>
+        <v>-0.263376773581773</v>
       </c>
       <c r="L16">
-        <v>-0.339169796664241</v>
+        <v>-0.392308962119407</v>
       </c>
       <c r="M16">
-        <v>-0.125948275862069</v>
+        <v>-0.136828734385564</v>
       </c>
       <c r="N16">
-        <v>-10.5187103255054</v>
+        <v>-11.9716715264442</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
@@ -1690,19 +1702,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,34 +1731,34 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.362678427706427</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.862068965517241</v>
+        <v>0.870689655172414</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.775</v>
+        <v>10.835</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>-0.0066469517743401</v>
       </c>
       <c r="L17">
-        <v>-0.0538937333271871</v>
+        <v>-0.0495070991026997</v>
       </c>
       <c r="M17">
-        <v>0.0401267246986362</v>
+        <v>0.0497700374499597</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>-0.061347039910846</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
@@ -1761,19 +1773,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,28 +1802,28 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18">
-        <v>0.959051680075133</v>
+        <v>0.976141502479267</v>
       </c>
       <c r="G18">
-        <v>0.247863247863248</v>
+        <v>0.273504273504274</v>
       </c>
       <c r="H18">
-        <v>0.136752136752137</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>-0.0003711523302556</v>
+        <v>-0.0003334094020994</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1823,7 +1835,7 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q18">
         <v>1844630.998</v>
@@ -1832,19 +1844,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1864,13 +1876,13 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.0032984056905222</v>
+        <v>0.07306192651818411</v>
       </c>
       <c r="G19">
-        <v>0.0256410256410256</v>
+        <v>0.0258620689655172</v>
       </c>
       <c r="H19">
-        <v>0.700854700854701</v>
+        <v>0.7155172413793101</v>
       </c>
       <c r="I19">
         <v>3</v>
@@ -1879,22 +1891,22 @@
         <v>140</v>
       </c>
       <c r="K19">
-        <v>12.4119765069671</v>
+        <v>4.96422951520658</v>
       </c>
       <c r="L19">
-        <v>4.08993375194403</v>
+        <v>-0.499316473000684</v>
       </c>
       <c r="M19">
-        <v>25.7569902153397</v>
+        <v>12.9924273930986</v>
       </c>
       <c r="N19">
-        <v>8.865697504976479</v>
+        <v>3.54587822514756</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q19">
         <v>1844630.998</v>
@@ -1903,19 +1915,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,16 +1944,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>0.0422326040449227</v>
+        <v>0.110327879265243</v>
       </c>
       <c r="G20">
-        <v>0.807339449541284</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="H20">
-        <v>0.247706422018349</v>
+        <v>0.236363636363636</v>
       </c>
       <c r="I20">
         <v>6</v>
@@ -1965,7 +1977,7 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q20">
         <v>1844630.998</v>
@@ -1974,19 +1986,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2003,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F21">
-        <v>0.9994970862333979</v>
+        <v>0.999999815588949</v>
       </c>
       <c r="G21">
-        <v>0.102564102564103</v>
+        <v>0.170940170940171</v>
       </c>
       <c r="H21">
         <v>0.136752136752137</v>
@@ -2021,16 +2033,16 @@
         <v>0.004</v>
       </c>
       <c r="K21">
-        <v>-0.0002030294608115</v>
+        <v>-0.000361516279899</v>
       </c>
       <c r="L21">
-        <v>-0.0003162337662337</v>
+        <v>-0.0005017170329669999</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-0.0002308786346396</v>
       </c>
       <c r="N21">
-        <v>-5.07573652028905</v>
+        <v>-9.03790699747641</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
@@ -2045,19 +2057,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2077,31 +2089,31 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.99131132922066</v>
+        <v>0.999036759468341</v>
       </c>
       <c r="G22">
         <v>0.008547008547008499</v>
       </c>
       <c r="H22">
-        <v>0.957264957264957</v>
+        <v>0.931623931623932</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8088</v>
+        <v>0.75</v>
       </c>
       <c r="K22">
-        <v>-0.0255875686813187</v>
+        <v>-0.0355081013235965</v>
       </c>
       <c r="L22">
-        <v>-0.0440197488221841</v>
+        <v>-0.0542337298100101</v>
       </c>
       <c r="M22">
-        <v>-0.0100256081023162</v>
+        <v>-0.0180618131868132</v>
       </c>
       <c r="N22">
-        <v>-3.16364597939153</v>
+        <v>-4.73441350981287</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
@@ -2116,19 +2128,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2148,37 +2160,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.338775836012608</v>
+        <v>0.08801472563009299</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.71304347826087</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.61</v>
+        <v>7.59</v>
       </c>
       <c r="K23">
-        <v>-0.0055706659888155</v>
+        <v>-0.017593995953371</v>
       </c>
       <c r="L23">
-        <v>-0.0280032921755888</v>
+        <v>-0.0389675412817041</v>
       </c>
       <c r="M23">
-        <v>0.0173032022629086</v>
+        <v>0.0042187245743145</v>
       </c>
       <c r="N23">
-        <v>-0.07320191838128121</v>
+        <v>-0.231804953272345</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q23">
         <v>1844630.998</v>
@@ -2187,16 +2199,16 @@
         <v>5523563.134</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2216,31 +2228,31 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.990639977782018</v>
+        <v>0.998839267082809</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.923076923076923</v>
+        <v>0.9145299145299149</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8165</v>
+        <v>0.79</v>
       </c>
       <c r="K24">
-        <v>-0.0250858516483517</v>
+        <v>-0.0344000304599452</v>
       </c>
       <c r="L24">
-        <v>-0.0443582674803259</v>
+        <v>-0.0529137495474288</v>
       </c>
       <c r="M24">
-        <v>-0.0096077591120336</v>
+        <v>-0.0178930632596713</v>
       </c>
       <c r="N24">
-        <v>-3.07236394958379</v>
+        <v>-4.3544342354361</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
@@ -2255,19 +2267,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2287,31 +2299,31 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.994469999076642</v>
+        <v>0.999953120849412</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.735042735042735</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0.982</v>
       </c>
       <c r="K25">
-        <v>-0.0198397609994568</v>
+        <v>-0.0339860426929392</v>
       </c>
       <c r="L25">
-        <v>-0.0364858270481678</v>
+        <v>-0.0500801917358162</v>
       </c>
       <c r="M25">
-        <v>-0.0079347313004093</v>
+        <v>-0.018662064809019</v>
       </c>
       <c r="N25">
-        <v>-1.98397609994568</v>
+        <v>-3.46090047789605</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
@@ -2326,19 +2338,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W25" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2358,13 +2370,13 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.223008011414398</v>
+        <v>0.841449102705632</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.358974358974359</v>
+        <v>0.341880341880342</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2373,22 +2385,22 @@
         <v>0.015</v>
       </c>
       <c r="K26">
-        <v>0.000191843355347</v>
+        <v>-0.0001980275611612</v>
       </c>
       <c r="L26">
-        <v>-0.0001969002695417</v>
+        <v>-0.000544160647834</v>
       </c>
       <c r="M26">
-        <v>0.0007428979765493</v>
+        <v>0.0001147394849797</v>
       </c>
       <c r="N26">
-        <v>1.27895570231337</v>
+        <v>-1.32018374107529</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q26">
         <v>1844630.998</v>
@@ -2397,19 +2409,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2429,7 +2441,7 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.161191268513717</v>
+        <v>0.251865488088687</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2441,25 +2453,25 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="K27">
-        <v>0.0198775510204082</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="L27">
-        <v>-0.0146981470586702</v>
+        <v>-0.0262460344221545</v>
       </c>
       <c r="M27">
-        <v>0.101160920778645</v>
+        <v>0.0573456379585833</v>
       </c>
       <c r="N27">
-        <v>1.8236285339824</v>
+        <v>0.964840448013526</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q27">
         <v>1844630.998</v>
@@ -2468,19 +2480,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2488,10 +2500,10 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2500,37 +2512,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.5</v>
+        <v>0.0442958783112248</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.8</v>
+        <v>0.702479338842975</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.356</v>
+        <v>28</v>
       </c>
       <c r="K28">
-        <v>0.002482281553398</v>
+        <v>0.852614931179259</v>
       </c>
       <c r="L28">
-        <v>-0.0557024990657605</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0.0348639098385896</v>
+        <v>1.93253968253968</v>
       </c>
       <c r="N28">
-        <v>0.697270099269118</v>
+        <v>3.04505332564021</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Q28">
         <v>1844630.998</v>
@@ -2539,16 +2551,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V28" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="W28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2556,49 +2571,49 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.95679463351315</v>
+        <v>0.017418628891993</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.008130081300813</v>
       </c>
       <c r="H29">
+        <v>0.731707317073171</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
-        <v>95.29000000000001</v>
+        <v>2.16</v>
       </c>
       <c r="K29">
-        <v>4.14957599885961</v>
+        <v>-0.0923735475051265</v>
       </c>
       <c r="L29">
-        <v>-3.47745459234525</v>
+        <v>-0.142634216828196</v>
       </c>
       <c r="M29">
-        <v>9.3087048555329</v>
+        <v>-0.0258242948876598</v>
       </c>
       <c r="N29">
-        <v>4.35468149738652</v>
+        <v>-4.27655312523733</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q29">
         <v>1844630.998</v>
@@ -2607,16 +2622,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V29" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="W29" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2624,49 +2642,49 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.768783636774762</v>
+        <v>0.881493178300384</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>5.259</v>
+        <v>10.735</v>
       </c>
       <c r="K30">
-        <v>0.0794261714675438</v>
+        <v>0.0274624060150377</v>
       </c>
       <c r="L30">
-        <v>-0.32326145885963</v>
+        <v>-0.0069601910449012</v>
       </c>
       <c r="M30">
-        <v>0.476914631274802</v>
+        <v>0.062256064111061</v>
       </c>
       <c r="N30">
-        <v>1.51029038728929</v>
+        <v>0.255821201816839</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="Q30">
         <v>1844630.998</v>
@@ -2675,16 +2693,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V30" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="W30" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2692,49 +2713,49 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F31">
-        <v>0.20948086257967</v>
+        <v>0.991554164219302</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.259259259259259</v>
       </c>
       <c r="H31">
-        <v>0.9</v>
+        <v>0.0987654320987654</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>0.363</v>
+        <v>0.007</v>
       </c>
       <c r="K31">
-        <v>-0.0105360576923077</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>-0.0275577304163236</v>
+        <v>-0.0002339846252402</v>
       </c>
       <c r="M31">
-        <v>0.0050540082583426</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>-2.90249523204069</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q31">
         <v>1844630.998</v>
@@ -2743,16 +2764,19 @@
         <v>5523563.134</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V31" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="W31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2760,10 +2784,10 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -2772,123 +2796,1235 @@
         <v>40</v>
       </c>
       <c r="F32">
+        <v>0.0235528673765039</v>
+      </c>
+      <c r="G32">
+        <v>0.0186335403726708</v>
+      </c>
+      <c r="H32">
+        <v>0.708074534161491</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>132.8</v>
+      </c>
+      <c r="K32">
+        <v>4.20563369521454</v>
+      </c>
+      <c r="L32">
+        <v>0.684511391128914</v>
+      </c>
+      <c r="M32">
+        <v>8.43253593890657</v>
+      </c>
+      <c r="N32">
+        <v>3.16689284278203</v>
+      </c>
+      <c r="O32" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32">
+        <v>1844630.998</v>
+      </c>
+      <c r="R32">
+        <v>5523563.134</v>
+      </c>
+      <c r="S32" t="s">
+        <v>59</v>
+      </c>
+      <c r="T32" t="s">
+        <v>60</v>
+      </c>
+      <c r="U32" t="s">
+        <v>61</v>
+      </c>
+      <c r="V32" t="s">
+        <v>62</v>
+      </c>
+      <c r="W32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33">
+        <v>0.900995181913666</v>
+      </c>
+      <c r="G33">
+        <v>0.764705882352941</v>
+      </c>
+      <c r="H33">
+        <v>0.274509803921569</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>0.005</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33">
+        <v>1844630.998</v>
+      </c>
+      <c r="R33">
+        <v>5523563.134</v>
+      </c>
+      <c r="S33" t="s">
+        <v>59</v>
+      </c>
+      <c r="T33" t="s">
+        <v>60</v>
+      </c>
+      <c r="U33" t="s">
+        <v>61</v>
+      </c>
+      <c r="V33" t="s">
+        <v>62</v>
+      </c>
+      <c r="W33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34">
+        <v>0.998096442717035</v>
+      </c>
+      <c r="G34">
+        <v>0.191358024691358</v>
+      </c>
+      <c r="H34">
+        <v>0.0987654320987654</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0.004</v>
+      </c>
+      <c r="K34">
+        <v>-0.0001154393173198</v>
+      </c>
+      <c r="L34">
+        <v>-0.000203060814143</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>-2.88598293299621</v>
+      </c>
+      <c r="O34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q34">
+        <v>1844630.998</v>
+      </c>
+      <c r="R34">
+        <v>5523563.134</v>
+      </c>
+      <c r="S34" t="s">
+        <v>59</v>
+      </c>
+      <c r="T34" t="s">
+        <v>60</v>
+      </c>
+      <c r="U34" t="s">
+        <v>61</v>
+      </c>
+      <c r="V34" t="s">
+        <v>62</v>
+      </c>
+      <c r="W34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <v>0.998107704667579</v>
+      </c>
+      <c r="G35">
+        <v>0.0061728395061728</v>
+      </c>
+      <c r="H35">
+        <v>0.895061728395062</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0.76975</v>
+      </c>
+      <c r="K35">
+        <v>-0.0184304843277024</v>
+      </c>
+      <c r="L35">
+        <v>-0.0305272836631104</v>
+      </c>
+      <c r="M35">
+        <v>-0.008333442336012801</v>
+      </c>
+      <c r="N35">
+        <v>-2.3943467785258</v>
+      </c>
+      <c r="O35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q35">
+        <v>1844630.998</v>
+      </c>
+      <c r="R35">
+        <v>5523563.134</v>
+      </c>
+      <c r="S35" t="s">
+        <v>59</v>
+      </c>
+      <c r="T35" t="s">
+        <v>60</v>
+      </c>
+      <c r="U35" t="s">
+        <v>61</v>
+      </c>
+      <c r="V35" t="s">
+        <v>62</v>
+      </c>
+      <c r="W35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <v>0.001973880936709</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.635220125786163</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>7.65</v>
+      </c>
+      <c r="K36">
+        <v>-0.0244587053571429</v>
+      </c>
+      <c r="L36">
+        <v>-0.0378105590062113</v>
+      </c>
+      <c r="M36">
+        <v>-0.0108826738173972</v>
+      </c>
+      <c r="N36">
+        <v>-0.319721638655462</v>
+      </c>
+      <c r="O36" t="s">
+        <v>44</v>
+      </c>
+      <c r="P36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36">
+        <v>1844630.998</v>
+      </c>
+      <c r="R36">
+        <v>5523563.134</v>
+      </c>
+      <c r="S36" t="s">
+        <v>59</v>
+      </c>
+      <c r="T36" t="s">
+        <v>60</v>
+      </c>
+      <c r="U36" t="s">
+        <v>61</v>
+      </c>
+      <c r="V36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <v>0.997997344473093</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.925925925925926</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.8021</v>
+      </c>
+      <c r="K37">
+        <v>-0.0196416473555071</v>
+      </c>
+      <c r="L37">
+        <v>-0.0300269863287591</v>
+      </c>
+      <c r="M37">
+        <v>-0.008891181556377</v>
+      </c>
+      <c r="N37">
+        <v>-2.44877787750992</v>
+      </c>
+      <c r="O37" t="s">
+        <v>44</v>
+      </c>
+      <c r="P37" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q37">
+        <v>1844630.998</v>
+      </c>
+      <c r="R37">
+        <v>5523563.134</v>
+      </c>
+      <c r="S37" t="s">
+        <v>59</v>
+      </c>
+      <c r="T37" t="s">
+        <v>60</v>
+      </c>
+      <c r="U37" t="s">
+        <v>61</v>
+      </c>
+      <c r="V37" t="s">
+        <v>62</v>
+      </c>
+      <c r="W37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38">
+        <v>0.999658980595324</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.660493827160494</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.984</v>
+      </c>
+      <c r="K38">
+        <v>-0.0183103165946692</v>
+      </c>
+      <c r="L38">
+        <v>-0.0280264567450795</v>
+      </c>
+      <c r="M38">
+        <v>-0.0099654353388978</v>
+      </c>
+      <c r="N38">
+        <v>-1.86080453197857</v>
+      </c>
+      <c r="O38" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38">
+        <v>1844630.998</v>
+      </c>
+      <c r="R38">
+        <v>5523563.134</v>
+      </c>
+      <c r="S38" t="s">
+        <v>59</v>
+      </c>
+      <c r="T38" t="s">
+        <v>60</v>
+      </c>
+      <c r="U38" t="s">
+        <v>61</v>
+      </c>
+      <c r="V38" t="s">
+        <v>62</v>
+      </c>
+      <c r="W38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39">
+        <v>0.5283327644988201</v>
+      </c>
+      <c r="G39">
+        <v>0.0123456790123457</v>
+      </c>
+      <c r="H39">
+        <v>0.290123456790123</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0.015</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>-0.0002301014958692</v>
+      </c>
+      <c r="M39">
+        <v>0.0002426910299003</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>44</v>
+      </c>
+      <c r="P39" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q39">
+        <v>1844630.998</v>
+      </c>
+      <c r="R39">
+        <v>5523563.134</v>
+      </c>
+      <c r="S39" t="s">
+        <v>59</v>
+      </c>
+      <c r="T39" t="s">
+        <v>60</v>
+      </c>
+      <c r="U39" t="s">
+        <v>61</v>
+      </c>
+      <c r="V39" t="s">
+        <v>62</v>
+      </c>
+      <c r="W39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>0.414351090593721</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.8271604938271609</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1.09</v>
+      </c>
+      <c r="K40">
+        <v>0.0043810219385877</v>
+      </c>
+      <c r="L40">
+        <v>-0.0237692238119607</v>
+      </c>
+      <c r="M40">
+        <v>0.0236234029694943</v>
+      </c>
+      <c r="N40">
+        <v>0.401928618219058</v>
+      </c>
+      <c r="O40" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q40">
+        <v>1844630.998</v>
+      </c>
+      <c r="R40">
+        <v>5523563.134</v>
+      </c>
+      <c r="S40" t="s">
+        <v>59</v>
+      </c>
+      <c r="T40" t="s">
+        <v>60</v>
+      </c>
+      <c r="U40" t="s">
+        <v>61</v>
+      </c>
+      <c r="V40" t="s">
+        <v>62</v>
+      </c>
+      <c r="W40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.37</v>
+      </c>
+      <c r="K41">
+        <v>0.0223164241948655</v>
+      </c>
+      <c r="L41">
+        <v>-0.0298344334275195</v>
+      </c>
+      <c r="M41">
+        <v>0.0500386719981985</v>
+      </c>
+      <c r="N41">
+        <v>6.03146599861231</v>
+      </c>
+      <c r="O41" t="s">
+        <v>44</v>
+      </c>
+      <c r="P41" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q41">
+        <v>1844630.998</v>
+      </c>
+      <c r="R41">
+        <v>5523563.134</v>
+      </c>
+      <c r="S41" t="s">
+        <v>59</v>
+      </c>
+      <c r="T41" t="s">
+        <v>60</v>
+      </c>
+      <c r="U41" t="s">
+        <v>61</v>
+      </c>
+      <c r="V41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>97.5</v>
+      </c>
+      <c r="K42">
+        <v>2.01652504199114</v>
+      </c>
+      <c r="L42">
+        <v>-7.77438670585312</v>
+      </c>
+      <c r="M42">
+        <v>8.55350120205504</v>
+      </c>
+      <c r="N42">
+        <v>2.06823081229861</v>
+      </c>
+      <c r="O42" t="s">
+        <v>44</v>
+      </c>
+      <c r="P42" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42">
+        <v>1844630.998</v>
+      </c>
+      <c r="R42">
+        <v>5523563.134</v>
+      </c>
+      <c r="S42" t="s">
+        <v>59</v>
+      </c>
+      <c r="T42" t="s">
+        <v>60</v>
+      </c>
+      <c r="U42" t="s">
+        <v>61</v>
+      </c>
+      <c r="V42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>5.259</v>
+      </c>
+      <c r="K43">
+        <v>-0.0310112436631057</v>
+      </c>
+      <c r="L43">
+        <v>-0.361141588466941</v>
+      </c>
+      <c r="M43">
+        <v>0.0627921044487358</v>
+      </c>
+      <c r="N43">
+        <v>-0.589679476385353</v>
+      </c>
+      <c r="O43" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q43">
+        <v>1844630.998</v>
+      </c>
+      <c r="R43">
+        <v>5523563.134</v>
+      </c>
+      <c r="S43" t="s">
+        <v>59</v>
+      </c>
+      <c r="T43" t="s">
+        <v>60</v>
+      </c>
+      <c r="U43" t="s">
+        <v>61</v>
+      </c>
+      <c r="V43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44">
         <v>0.5</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.9</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.363</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>-0.014301678136283</v>
+      </c>
+      <c r="M44">
+        <v>0.0177684103559106</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>44</v>
+      </c>
+      <c r="P44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q44">
+        <v>1844630.998</v>
+      </c>
+      <c r="R44">
+        <v>5523563.134</v>
+      </c>
+      <c r="S44" t="s">
+        <v>59</v>
+      </c>
+      <c r="T44" t="s">
+        <v>60</v>
+      </c>
+      <c r="U44" t="s">
+        <v>61</v>
+      </c>
+      <c r="V44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45">
+        <v>0.8584345646688269</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>94.145</v>
       </c>
-      <c r="K32">
-        <v>0.35052783109405</v>
-      </c>
-      <c r="L32">
-        <v>-1.62532976861687</v>
-      </c>
-      <c r="M32">
-        <v>2.10729872062066</v>
-      </c>
-      <c r="N32">
-        <v>0.372327612824951</v>
-      </c>
-      <c r="O32" t="s">
-        <v>44</v>
-      </c>
-      <c r="P32" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q32">
-        <v>1844630.998</v>
-      </c>
-      <c r="R32">
-        <v>5523563.134</v>
-      </c>
-      <c r="S32" t="s">
+      <c r="K45">
+        <v>1.37105855855856</v>
+      </c>
+      <c r="L45">
+        <v>-0.570186484613997</v>
+      </c>
+      <c r="M45">
+        <v>2.34910572855162</v>
+      </c>
+      <c r="N45">
+        <v>1.45632647358708</v>
+      </c>
+      <c r="O45" t="s">
+        <v>44</v>
+      </c>
+      <c r="P45" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q45">
+        <v>1844630.998</v>
+      </c>
+      <c r="R45">
+        <v>5523563.134</v>
+      </c>
+      <c r="S45" t="s">
+        <v>59</v>
+      </c>
+      <c r="T45" t="s">
+        <v>60</v>
+      </c>
+      <c r="U45" t="s">
+        <v>61</v>
+      </c>
+      <c r="V45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46">
+        <v>0.894751149972331</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>4.899</v>
+      </c>
+      <c r="K46">
+        <v>0.127660194174757</v>
+      </c>
+      <c r="L46">
+        <v>-0.0462827219159063</v>
+      </c>
+      <c r="M46">
+        <v>0.215522945503442</v>
+      </c>
+      <c r="N46">
+        <v>2.60584188966641</v>
+      </c>
+      <c r="O46" t="s">
+        <v>44</v>
+      </c>
+      <c r="P46" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q46">
+        <v>1844630.998</v>
+      </c>
+      <c r="R46">
+        <v>5523563.134</v>
+      </c>
+      <c r="S46" t="s">
+        <v>59</v>
+      </c>
+      <c r="T46" t="s">
+        <v>60</v>
+      </c>
+      <c r="U46" t="s">
+        <v>61</v>
+      </c>
+      <c r="V46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <v>0.1036501835995</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.3855</v>
+      </c>
+      <c r="K47">
+        <v>-0.007014403292181</v>
+      </c>
+      <c r="L47">
+        <v>-0.0147565144579189</v>
+      </c>
+      <c r="M47">
+        <v>0.0020814792204088</v>
+      </c>
+      <c r="N47">
+        <v>-1.81955986827006</v>
+      </c>
+      <c r="O47" t="s">
+        <v>44</v>
+      </c>
+      <c r="P47" t="s">
         <v>55</v>
       </c>
-      <c r="T32" t="s">
-        <v>56</v>
-      </c>
-      <c r="U32" t="s">
-        <v>57</v>
-      </c>
-      <c r="V32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="Q47">
+        <v>1844630.998</v>
+      </c>
+      <c r="R47">
+        <v>5523563.134</v>
+      </c>
+      <c r="S47" t="s">
+        <v>59</v>
+      </c>
+      <c r="T47" t="s">
+        <v>60</v>
+      </c>
+      <c r="U47" t="s">
+        <v>61</v>
+      </c>
+      <c r="V47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48">
+        <v>0.221710701432041</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>97.25</v>
+      </c>
+      <c r="K48">
+        <v>-0.632517317380353</v>
+      </c>
+      <c r="L48">
+        <v>-1.46035853919093</v>
+      </c>
+      <c r="M48">
+        <v>0.596134301752559</v>
+      </c>
+      <c r="N48">
+        <v>-0.650403411188023</v>
+      </c>
+      <c r="O48" t="s">
+        <v>44</v>
+      </c>
+      <c r="P48" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q48">
+        <v>1844630.998</v>
+      </c>
+      <c r="R48">
+        <v>5523563.134</v>
+      </c>
+      <c r="S48" t="s">
+        <v>59</v>
+      </c>
+      <c r="T48" t="s">
+        <v>60</v>
+      </c>
+      <c r="U48" t="s">
+        <v>61</v>
+      </c>
+      <c r="V48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
         <v>39</v>
       </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
         <v>40</v>
       </c>
-      <c r="F33">
-        <v>0.894751149972331</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
+      <c r="F49">
+        <v>0.809462759195353</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>4.7175</v>
-      </c>
-      <c r="K33">
-        <v>0.115245354239257</v>
-      </c>
-      <c r="L33">
-        <v>-0.0368958057090732</v>
-      </c>
-      <c r="M33">
-        <v>0.220357459029614</v>
-      </c>
-      <c r="N33">
-        <v>2.44293278726564</v>
-      </c>
-      <c r="O33" t="s">
-        <v>44</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>4.875</v>
+      </c>
+      <c r="K49">
+        <v>0.0312476235741445</v>
+      </c>
+      <c r="L49">
+        <v>-0.0511089397043204</v>
+      </c>
+      <c r="M49">
+        <v>0.117508213592415</v>
+      </c>
+      <c r="N49">
+        <v>0.640976893828606</v>
+      </c>
+      <c r="O49" t="s">
+        <v>44</v>
+      </c>
+      <c r="P49" t="s">
         <v>45</v>
       </c>
-      <c r="Q33">
-        <v>1844630.998</v>
-      </c>
-      <c r="R33">
-        <v>5523563.134</v>
-      </c>
-      <c r="S33" t="s">
-        <v>55</v>
-      </c>
-      <c r="T33" t="s">
-        <v>56</v>
-      </c>
-      <c r="U33" t="s">
-        <v>57</v>
-      </c>
-      <c r="V33" t="s">
-        <v>58</v>
+      <c r="Q49">
+        <v>1844630.998</v>
+      </c>
+      <c r="R49">
+        <v>5523563.134</v>
+      </c>
+      <c r="S49" t="s">
+        <v>59</v>
+      </c>
+      <c r="T49" t="s">
+        <v>60</v>
+      </c>
+      <c r="U49" t="s">
+        <v>61</v>
+      </c>
+      <c r="V49" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
